--- a/Ninja Hybrid Weaponskills Spreadsheet.xlsx
+++ b/Ninja Hybrid Weaponskills Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Games\Final Fantasy\Final Fantasy XI\Spreadsheets\Sortie Workup\Deliverable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Games\Final Fantasy\Final Fantasy XI\Spreadsheets\2025 Workup\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F188A4CB-45C8-46A7-A336-BD4EB1CB1A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F7C9BD-7ACA-496B-AF9A-6D40B1EF6416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="16335" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="233">
   <si>
     <t>NIN Katana Hybrid WS Calculator by SimonSes</t>
   </si>
@@ -727,6 +727,12 @@
   </si>
   <si>
     <t>Hattori Kyahan +3</t>
+  </si>
+  <si>
+    <t>Cornelia's Ring</t>
+  </si>
+  <si>
+    <t>Dokoku</t>
   </si>
 </sst>
 </file>
@@ -1146,8 +1152,8 @@
   </sheetPr>
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1799,11 +1805,11 @@
       </c>
       <c r="H21" s="5">
         <f t="shared" ref="H21:H23" si="6">$E$43+5%</f>
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="I21" s="15">
         <f>((E21+F21+$K$27+F18)*(((H21+1)*IF($M$18=1,1.1,IF($M$18=2,1.2,1)))+1+($G$5-1)))*C21*D18+((E21+F21+$K$28+F19)*$G$6)*D21*D19</f>
-        <v>5781.0655980550018</v>
+        <v>5846.2945200550012</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" ref="J21:J23" si="7">$L$43</f>
@@ -1811,11 +1817,11 @@
       </c>
       <c r="K21" s="15">
         <f>(I21*G21+J21)*((1+($H$18/100))/(1+$D$15/100))*(1+$J$18)*(1+H21)</f>
-        <v>88090.21972613332</v>
+        <v>91704.715449518102</v>
       </c>
       <c r="L21" s="15">
         <f t="shared" ref="L21:L23" si="8">I21+K21</f>
-        <v>93871.285324188328</v>
+        <v>97551.009969573104</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -1847,11 +1853,11 @@
       </c>
       <c r="H22" s="5">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="I22" s="15">
         <f>((E22+F22+$K$27+F18)*(((H22+1)*IF($M$18=1,1.1,IF($M$18=2,1.2,1)))+($G$5-1)))*C22*D18+((E22+F22+$K$28+F19)*$G$6)*D22*D19</f>
-        <v>5207.295293090001</v>
+        <v>5283.2315353400008</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="7"/>
@@ -1859,11 +1865,11 @@
       </c>
       <c r="K22" s="15">
         <f>(I22*G22+J22)*((1+($H$18/100))/(1+$D$15/100))*(1+$J$18/100)*(1+H22)</f>
-        <v>76777.105954503204</v>
+        <v>80180.456275765478</v>
       </c>
       <c r="L22" s="15">
         <f t="shared" si="8"/>
-        <v>81984.40124759321</v>
+        <v>85463.687811105483</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -1895,11 +1901,11 @@
       </c>
       <c r="H23" s="5">
         <f t="shared" si="6"/>
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="I23" s="15">
         <f>((E23+F23+$K$27+F18)*(((H23+1)*IF($M$18=1,1.1,IF($M$18=2,1.2,1)))+($G$5-1)))*C23*D18+((E23+F23+$K$28+F19)*$G$6)*D23*D19</f>
-        <v>4476.4871580550016</v>
+        <v>4541.7160800550009</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" si="7"/>
@@ -1907,11 +1913,11 @@
       </c>
       <c r="K23" s="15">
         <f>(I23*G23+39)*((1+($H$18/100))/(1+$D$15/100))*(1+$J$18/100)*(1+H23)</f>
-        <v>57841.212826755873</v>
+        <v>60427.244570680145</v>
       </c>
       <c r="L23" s="15">
         <f t="shared" si="8"/>
-        <v>62317.699984810875</v>
+        <v>64968.960650735142</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -2484,7 +2490,7 @@
     <row r="35" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="11" t="s">
-        <v>64</v>
+        <v>231</v>
       </c>
       <c r="C35" s="6">
         <f>VLOOKUP($B35,Gear!$A:$K,2,FALSE)</f>
@@ -2496,7 +2502,7 @@
       </c>
       <c r="E35" s="5">
         <f>VLOOKUP($B35,Gear!$A:$K,4,FALSE)</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F35" s="6">
         <f>VLOOKUP($B35,Gear!$A:$K,5,FALSE)</f>
@@ -2938,7 +2944,7 @@
       </c>
       <c r="E43" s="5">
         <f t="shared" si="9"/>
-        <v>0.63</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="9"/>
@@ -3223,75 +3229,75 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
-            <xm:f>Gear!$A$123</xm:f>
+            <xm:f>Gear!$A$125</xm:f>
           </x14:formula1>
           <xm:sqref>B38</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
-            <xm:f>Gear!$A$50:$A$64</xm:f>
+            <xm:f>Gear!$A$51:$A$65</xm:f>
           </x14:formula1>
           <xm:sqref>B31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
-            <xm:f>Gear!$A$114:$A$119</xm:f>
+            <xm:f>Gear!$A$116:$A$121</xm:f>
           </x14:formula1>
           <xm:sqref>B36:B37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
-            <xm:f>Gear!$A$130:$A$133</xm:f>
+            <xm:f>Gear!$A$132:$A$135</xm:f>
           </x14:formula1>
           <xm:sqref>B40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
-            <xm:f>Gear!$A$85:$A$102</xm:f>
+            <xm:f>Gear!$A$86:$A$103</xm:f>
           </x14:formula1>
           <xm:sqref>B33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
-            <xm:f>Gear!$A$136:$A$137</xm:f>
+            <xm:f>Gear!$A$138:$A$139</xm:f>
           </x14:formula1>
           <xm:sqref>B41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000B000000}">
           <x14:formula1>
-            <xm:f>Gear!$A$126:$A$127</xm:f>
+            <xm:f>Gear!$A$128:$A$129</xm:f>
           </x14:formula1>
           <xm:sqref>B39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000C000000}">
           <x14:formula1>
-            <xm:f>Gear!$A$32:$A$47</xm:f>
+            <xm:f>Gear!$A$33:$A$48</xm:f>
           </x14:formula1>
           <xm:sqref>B30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000D000000}">
           <x14:formula1>
-            <xm:f>Gear!$A$105:$A$111</xm:f>
+            <xm:f>Gear!$A$106:$A$113</xm:f>
           </x14:formula1>
           <xm:sqref>B34:B35</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
-          <x14:formula1>
-            <xm:f>Gear!$A$2:$A$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>B27:B28</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000F000000}">
           <x14:formula1>
-            <xm:f>Gear!$A$67:$A$82</xm:f>
+            <xm:f>Gear!$A$68:$A$83</xm:f>
           </x14:formula1>
           <xm:sqref>B32</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000010000000}">
           <x14:formula1>
-            <xm:f>Gear!$A$15:$A$29</xm:f>
+            <xm:f>Gear!$A$16:$A$30</xm:f>
           </x14:formula1>
           <xm:sqref>B29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
+          <x14:formula1>
+            <xm:f>Gear!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B27:B28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3304,11 +3310,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N1059"/>
+  <dimension ref="A1:N1061"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3412,34 +3416,34 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="27">
-        <v>49</v>
-      </c>
-      <c r="K4" s="27">
-        <v>0</v>
-      </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27">
-        <v>0</v>
-      </c>
-      <c r="N4" s="27" t="s">
+      <c r="A4" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="24">
+        <v>163</v>
+      </c>
+      <c r="K4" s="24">
+        <v>263</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24">
+        <v>277</v>
+      </c>
+      <c r="N4" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -3450,14 +3454,14 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="27">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="K5" s="27">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="L5" s="27"/>
       <c r="M5" s="27">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="N5" s="27" t="s">
         <v>80</v>
@@ -3465,31 +3469,25 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B6" s="27"/>
-      <c r="C6" s="27">
-        <v>15</v>
-      </c>
+      <c r="C6" s="27"/>
       <c r="D6" s="28"/>
-      <c r="E6" s="27">
-        <v>16</v>
-      </c>
+      <c r="E6" s="27"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="27">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K6" s="27">
-        <v>217</v>
-      </c>
-      <c r="L6" s="27">
-        <v>30</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="27">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="N6" s="27" t="s">
         <v>80</v>
@@ -3497,31 +3495,31 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28">
-        <v>0.05</v>
-      </c>
+      <c r="C7" s="27">
+        <v>15</v>
+      </c>
+      <c r="D7" s="28"/>
       <c r="E7" s="27">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="27">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K7" s="27">
         <v>217</v>
       </c>
       <c r="L7" s="27">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="M7" s="27">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N7" s="27" t="s">
         <v>80</v>
@@ -3529,7 +3527,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -3544,13 +3542,13 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="27">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K8" s="27">
         <v>217</v>
       </c>
       <c r="L8" s="27">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M8" s="27">
         <v>248</v>
@@ -3561,7 +3559,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -3576,13 +3574,13 @@
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="27">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K9" s="27">
         <v>217</v>
       </c>
       <c r="L9" s="27">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M9" s="27">
         <v>248</v>
@@ -3593,59 +3591,61 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="27"/>
+      <c r="D10" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="27">
+        <v>20</v>
+      </c>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="28">
-        <v>0.06</v>
-      </c>
+      <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="27">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="K10" s="27">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="L10" s="27">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M10" s="27">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
-      <c r="D11" s="28">
-        <v>0.05</v>
-      </c>
+      <c r="D11" s="28"/>
       <c r="E11" s="27"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I11" s="28"/>
       <c r="J11" s="27">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="K11" s="27">
         <v>0</v>
       </c>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>65</v>
+      </c>
       <c r="M11" s="27">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="N11" s="27" t="s">
         <v>84</v>
@@ -3653,47 +3653,67 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" s="27"/>
-      <c r="C12" s="27">
-        <v>15</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27">
-        <v>16</v>
-      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="27"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="H12" s="28">
+        <v>0.04</v>
+      </c>
       <c r="I12" s="28"/>
       <c r="J12" s="27">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K12" s="27">
-        <v>217</v>
-      </c>
-      <c r="L12" s="27">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L12" s="27"/>
       <c r="M12" s="27">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="N12" s="27" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="A13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27">
+        <v>15</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="27">
+        <v>16</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="27">
+        <v>125</v>
+      </c>
+      <c r="K13" s="27">
+        <v>217</v>
+      </c>
+      <c r="L13" s="27">
+        <v>30</v>
+      </c>
+      <c r="M13" s="27">
+        <v>250</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>86</v>
-      </c>
       <c r="D14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -3701,34 +3721,18 @@
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="27">
-        <v>22</v>
-      </c>
-      <c r="C15" s="27">
-        <v>20</v>
-      </c>
-      <c r="D15" s="28">
-        <v>0.05</v>
-      </c>
-      <c r="E15" s="27">
-        <v>45</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27">
-        <v>15</v>
-      </c>
+      <c r="A15" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="27">
         <v>22</v>
@@ -3736,16 +3740,16 @@
       <c r="C16" s="27">
         <v>20</v>
       </c>
-      <c r="D16" s="28"/>
+      <c r="D16" s="28">
+        <v>0.05</v>
+      </c>
       <c r="E16" s="27">
         <v>45</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="28">
-        <v>0.04</v>
-      </c>
+      <c r="I16" s="28"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27">
@@ -3754,7 +3758,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="27">
         <v>22</v>
@@ -3762,16 +3766,16 @@
       <c r="C17" s="27">
         <v>20</v>
       </c>
-      <c r="D17" s="28">
-        <v>0.1</v>
-      </c>
+      <c r="D17" s="28"/>
       <c r="E17" s="27">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="I17" s="28">
+        <v>0.04</v>
+      </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27">
@@ -3780,7 +3784,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="27">
         <v>22</v>
@@ -3788,14 +3792,14 @@
       <c r="C18" s="27">
         <v>20</v>
       </c>
-      <c r="D18" s="28"/>
+      <c r="D18" s="28">
+        <v>0.1</v>
+      </c>
       <c r="E18" s="27">
         <v>30</v>
       </c>
       <c r="F18" s="28"/>
-      <c r="G18" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="27"/>
@@ -3806,7 +3810,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="27">
         <v>22</v>
@@ -3814,14 +3818,14 @@
       <c r="C19" s="27">
         <v>20</v>
       </c>
-      <c r="D19" s="28">
-        <v>0.1</v>
-      </c>
+      <c r="D19" s="28"/>
       <c r="E19" s="27">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="G19" s="28">
+        <v>0.03</v>
+      </c>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="27"/>
@@ -3832,7 +3836,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="27">
         <v>22</v>
@@ -3840,14 +3844,14 @@
       <c r="C20" s="27">
         <v>20</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="28">
+        <v>0.1</v>
+      </c>
       <c r="E20" s="27">
         <v>50</v>
       </c>
       <c r="F20" s="28"/>
-      <c r="G20" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="27"/>
@@ -3858,59 +3862,57 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B21" s="27">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C21" s="27">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="27">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="G21" s="28">
+        <v>0.03</v>
+      </c>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
       <c r="L21" s="27">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="B22" s="27">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C22" s="27">
-        <v>28</v>
-      </c>
-      <c r="D22" s="28">
-        <v>0</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D22" s="28"/>
       <c r="E22" s="27">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="28">
-        <v>0.02</v>
-      </c>
+      <c r="I22" s="28"/>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
       <c r="L22" s="27">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" s="27">
         <v>26</v>
@@ -3919,7 +3921,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="28">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E23" s="27">
         <v>30</v>
@@ -3933,12 +3935,12 @@
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
       <c r="L23" s="27">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B24" s="27">
         <v>26</v>
@@ -3947,7 +3949,7 @@
         <v>28</v>
       </c>
       <c r="D24" s="28">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E24" s="27">
         <v>30</v>
@@ -3956,17 +3958,17 @@
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
       <c r="L24" s="27">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="27">
         <v>26</v>
@@ -3975,7 +3977,7 @@
         <v>28</v>
       </c>
       <c r="D25" s="28">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E25" s="27">
         <v>30</v>
@@ -3984,17 +3986,17 @@
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
       <c r="L25" s="27">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="B26" s="27">
         <v>26</v>
@@ -4002,25 +4004,27 @@
       <c r="C26" s="27">
         <v>28</v>
       </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="28">
+        <v>0.11</v>
+      </c>
       <c r="E26" s="27">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="I26" s="28">
+        <v>0.05</v>
+      </c>
       <c r="J26" s="27"/>
-      <c r="K26" s="27">
-        <v>20</v>
-      </c>
+      <c r="K26" s="27"/>
       <c r="L26" s="27">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B27" s="27">
         <v>26</v>
@@ -4030,7 +4034,7 @@
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="27">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
@@ -4038,7 +4042,7 @@
       <c r="I27" s="28"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L27" s="27">
         <v>30</v>
@@ -4046,7 +4050,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B28" s="27">
         <v>26</v>
@@ -4056,7 +4060,7 @@
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="27">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -4064,7 +4068,7 @@
       <c r="I28" s="28"/>
       <c r="J28" s="27"/>
       <c r="K28" s="27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L28" s="27">
         <v>30</v>
@@ -4072,39 +4076,55 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="27">
+        <v>26</v>
+      </c>
+      <c r="C29" s="27">
+        <v>28</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="27">
+        <v>65</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27">
+        <v>30</v>
+      </c>
+      <c r="L29" s="27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B30" s="30">
         <v>22</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C30" s="30">
         <v>20</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="30">
+      <c r="D30" s="31"/>
+      <c r="E30" s="30">
         <v>10</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30">
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-    </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
-        <v>94</v>
-      </c>
       <c r="D31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
@@ -4112,32 +4132,18 @@
       <c r="I31" s="29"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="27">
-        <v>28</v>
-      </c>
-      <c r="C32" s="27">
-        <v>21</v>
-      </c>
-      <c r="D32" s="28">
-        <v>0.05</v>
-      </c>
-      <c r="E32" s="27">
-        <v>35</v>
-      </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
+      <c r="A32" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B33" s="27">
         <v>28</v>
@@ -4145,23 +4151,23 @@
       <c r="C33" s="27">
         <v>21</v>
       </c>
-      <c r="D33" s="28"/>
+      <c r="D33" s="28">
+        <v>0.05</v>
+      </c>
       <c r="E33" s="27">
         <v>35</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="28">
-        <v>0.04</v>
-      </c>
+      <c r="I33" s="28"/>
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
       <c r="L33" s="27"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" s="27">
         <v>28</v>
@@ -4169,23 +4175,23 @@
       <c r="C34" s="27">
         <v>21</v>
       </c>
-      <c r="D34" s="28">
-        <v>0.1</v>
-      </c>
+      <c r="D34" s="28"/>
       <c r="E34" s="27">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+      <c r="I34" s="28">
+        <v>0.04</v>
+      </c>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
       <c r="L34" s="27"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" s="27">
         <v>28</v>
@@ -4193,14 +4199,14 @@
       <c r="C35" s="27">
         <v>21</v>
       </c>
-      <c r="D35" s="28"/>
+      <c r="D35" s="28">
+        <v>0.1</v>
+      </c>
       <c r="E35" s="27">
         <v>20</v>
       </c>
       <c r="F35" s="28"/>
-      <c r="G35" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
       <c r="J35" s="27"/>
@@ -4209,7 +4215,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" s="27">
         <v>28</v>
@@ -4217,14 +4223,14 @@
       <c r="C36" s="27">
         <v>21</v>
       </c>
-      <c r="D36" s="28">
-        <v>0.1</v>
-      </c>
+      <c r="D36" s="28"/>
       <c r="E36" s="27">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
+      <c r="G36" s="28">
+        <v>0.03</v>
+      </c>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
       <c r="J36" s="27"/>
@@ -4233,7 +4239,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" s="27">
         <v>28</v>
@@ -4241,14 +4247,14 @@
       <c r="C37" s="27">
         <v>21</v>
       </c>
-      <c r="D37" s="28"/>
+      <c r="D37" s="28">
+        <v>0.1</v>
+      </c>
       <c r="E37" s="27">
         <v>40</v>
       </c>
       <c r="F37" s="28"/>
-      <c r="G37" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
       <c r="J37" s="27"/>
@@ -4256,58 +4262,54 @@
       <c r="L37" s="27"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B38" s="32">
-        <v>19</v>
-      </c>
-      <c r="C38" s="32">
-        <v>39</v>
-      </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="32">
-        <v>42</v>
-      </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
+      <c r="A38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="27">
+        <v>28</v>
+      </c>
+      <c r="C38" s="27">
+        <v>21</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="27">
+        <v>40</v>
+      </c>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B39" s="27">
-        <v>35</v>
-      </c>
-      <c r="C39" s="27">
+      <c r="A39" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="32">
+        <v>19</v>
+      </c>
+      <c r="C39" s="32">
+        <v>39</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="32">
         <v>42</v>
       </c>
-      <c r="D39" s="28">
-        <v>0</v>
-      </c>
-      <c r="E39" s="27">
-        <v>30</v>
-      </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28">
-        <v>0.02</v>
-      </c>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
-      <c r="L39" s="27">
-        <v>30</v>
-      </c>
+      <c r="L39" s="27"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B40" s="27">
         <v>35</v>
@@ -4316,7 +4318,7 @@
         <v>42</v>
       </c>
       <c r="D40" s="28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="27">
         <v>30</v>
@@ -4325,17 +4327,17 @@
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="28">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="J40" s="27"/>
       <c r="K40" s="27"/>
       <c r="L40" s="27">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B41" s="27">
         <v>35</v>
@@ -4344,7 +4346,7 @@
         <v>42</v>
       </c>
       <c r="D41" s="28">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E41" s="27">
         <v>30</v>
@@ -4353,17 +4355,17 @@
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="J41" s="27"/>
       <c r="K41" s="27"/>
       <c r="L41" s="27">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B42" s="27">
         <v>35</v>
@@ -4372,7 +4374,7 @@
         <v>42</v>
       </c>
       <c r="D42" s="28">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E42" s="27">
         <v>30</v>
@@ -4381,17 +4383,17 @@
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="28">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J42" s="27"/>
       <c r="K42" s="27"/>
       <c r="L42" s="27">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="B43" s="27">
         <v>35</v>
@@ -4399,25 +4401,27 @@
       <c r="C43" s="27">
         <v>42</v>
       </c>
-      <c r="D43" s="28"/>
+      <c r="D43" s="28">
+        <v>0.13</v>
+      </c>
       <c r="E43" s="27">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
+      <c r="I43" s="28">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="J43" s="27"/>
-      <c r="K43" s="27">
-        <v>30</v>
-      </c>
+      <c r="K43" s="27"/>
       <c r="L43" s="27">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="B44" s="27">
         <v>35</v>
@@ -4427,7 +4431,7 @@
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="27">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
@@ -4435,7 +4439,7 @@
       <c r="I44" s="28"/>
       <c r="J44" s="27"/>
       <c r="K44" s="27">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L44" s="27">
         <v>30</v>
@@ -4443,7 +4447,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B45" s="27">
         <v>35</v>
@@ -4453,7 +4457,7 @@
       </c>
       <c r="D45" s="28"/>
       <c r="E45" s="27">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
@@ -4461,71 +4465,87 @@
       <c r="I45" s="28"/>
       <c r="J45" s="27"/>
       <c r="K45" s="27">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L45" s="27">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" s="27">
+        <v>35</v>
+      </c>
+      <c r="C46" s="27">
+        <v>42</v>
+      </c>
+      <c r="D46" s="28"/>
+      <c r="E46" s="27">
+        <v>65</v>
+      </c>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27">
+        <v>40</v>
+      </c>
+      <c r="L46" s="27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="32">
+      <c r="B47" s="32">
         <v>37</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C47" s="32">
         <v>32</v>
       </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="32">
+      <c r="D47" s="35"/>
+      <c r="E47" s="32">
         <v>25</v>
       </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35">
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35">
         <v>0.02</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="I47" s="35"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="30">
+      <c r="B48" s="30">
         <v>29</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C48" s="30">
         <v>21</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D48" s="31">
         <v>0.05</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E48" s="30">
         <v>0</v>
       </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
-        <v>101</v>
-      </c>
       <c r="D49" s="29"/>
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
@@ -4533,34 +4553,18 @@
       <c r="I49" s="29"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="27">
-        <v>16</v>
-      </c>
-      <c r="C50" s="27">
-        <v>14</v>
-      </c>
-      <c r="D50" s="28">
-        <v>0.05</v>
-      </c>
-      <c r="E50" s="27">
-        <v>35</v>
-      </c>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28">
-        <v>0.02</v>
-      </c>
-      <c r="I50" s="28"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
+      <c r="A50" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="B51" s="27">
         <v>16</v>
@@ -4568,7 +4572,9 @@
       <c r="C51" s="27">
         <v>14</v>
       </c>
-      <c r="D51" s="28"/>
+      <c r="D51" s="28">
+        <v>0.05</v>
+      </c>
       <c r="E51" s="27">
         <v>35</v>
       </c>
@@ -4577,16 +4583,14 @@
       <c r="H51" s="28">
         <v>0.02</v>
       </c>
-      <c r="I51" s="28">
-        <v>0.04</v>
-      </c>
+      <c r="I51" s="28"/>
       <c r="J51" s="27"/>
       <c r="K51" s="27"/>
       <c r="L51" s="27"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52" s="27">
         <v>16</v>
@@ -4594,25 +4598,25 @@
       <c r="C52" s="27">
         <v>14</v>
       </c>
-      <c r="D52" s="28">
-        <v>0.1</v>
-      </c>
+      <c r="D52" s="28"/>
       <c r="E52" s="27">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
       <c r="H52" s="28">
         <v>0.02</v>
       </c>
-      <c r="I52" s="28"/>
+      <c r="I52" s="28">
+        <v>0.04</v>
+      </c>
       <c r="J52" s="27"/>
       <c r="K52" s="27"/>
       <c r="L52" s="27"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="27">
         <v>16</v>
@@ -4620,14 +4624,14 @@
       <c r="C53" s="27">
         <v>14</v>
       </c>
-      <c r="D53" s="28"/>
+      <c r="D53" s="28">
+        <v>0.1</v>
+      </c>
       <c r="E53" s="27">
         <v>20</v>
       </c>
       <c r="F53" s="28"/>
-      <c r="G53" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="G53" s="28"/>
       <c r="H53" s="28">
         <v>0.02</v>
       </c>
@@ -4638,7 +4642,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" s="27">
         <v>16</v>
@@ -4646,14 +4650,14 @@
       <c r="C54" s="27">
         <v>14</v>
       </c>
-      <c r="D54" s="28">
-        <v>0.1</v>
-      </c>
+      <c r="D54" s="28"/>
       <c r="E54" s="27">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
+      <c r="G54" s="28">
+        <v>0.03</v>
+      </c>
       <c r="H54" s="28">
         <v>0.02</v>
       </c>
@@ -4664,7 +4668,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" s="27">
         <v>16</v>
@@ -4672,14 +4676,14 @@
       <c r="C55" s="27">
         <v>14</v>
       </c>
-      <c r="D55" s="28"/>
+      <c r="D55" s="28">
+        <v>0.1</v>
+      </c>
       <c r="E55" s="27">
         <v>40</v>
       </c>
       <c r="F55" s="28"/>
-      <c r="G55" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="G55" s="28"/>
       <c r="H55" s="28">
         <v>0.02</v>
       </c>
@@ -4689,58 +4693,56 @@
       <c r="L55" s="27"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="32">
-        <v>11</v>
-      </c>
-      <c r="C56" s="32">
-        <v>12</v>
-      </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="32">
-        <v>30</v>
-      </c>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
+      <c r="A56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="27">
+        <v>16</v>
+      </c>
+      <c r="C56" s="27">
+        <v>14</v>
+      </c>
+      <c r="D56" s="28"/>
+      <c r="E56" s="27">
+        <v>40</v>
+      </c>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="H56" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="I56" s="28"/>
       <c r="J56" s="27"/>
       <c r="K56" s="27"/>
       <c r="L56" s="27"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B57" s="27">
-        <v>17</v>
-      </c>
-      <c r="C57" s="27">
-        <v>28</v>
-      </c>
-      <c r="D57" s="28">
-        <v>0</v>
-      </c>
-      <c r="E57" s="27">
+      <c r="A57" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" s="32">
+        <v>11</v>
+      </c>
+      <c r="C57" s="32">
+        <v>12</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="32">
         <v>30</v>
       </c>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28">
-        <v>0.02</v>
-      </c>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
       <c r="J57" s="27"/>
       <c r="K57" s="27"/>
-      <c r="L57" s="27">
-        <v>30</v>
-      </c>
+      <c r="L57" s="27"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B58" s="27">
         <v>17</v>
@@ -4749,7 +4751,7 @@
         <v>28</v>
       </c>
       <c r="D58" s="28">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E58" s="27">
         <v>30</v>
@@ -4763,12 +4765,12 @@
       <c r="J58" s="27"/>
       <c r="K58" s="27"/>
       <c r="L58" s="27">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B59" s="27">
         <v>17</v>
@@ -4777,7 +4779,7 @@
         <v>28</v>
       </c>
       <c r="D59" s="28">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E59" s="27">
         <v>30</v>
@@ -4786,17 +4788,17 @@
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="J59" s="27"/>
       <c r="K59" s="27"/>
       <c r="L59" s="27">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B60" s="27">
         <v>17</v>
@@ -4805,7 +4807,7 @@
         <v>28</v>
       </c>
       <c r="D60" s="28">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E60" s="27">
         <v>30</v>
@@ -4814,17 +4816,17 @@
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
       <c r="I60" s="28">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J60" s="27"/>
       <c r="K60" s="27"/>
       <c r="L60" s="27">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="B61" s="27">
         <v>17</v>
@@ -4832,25 +4834,27 @@
       <c r="C61" s="27">
         <v>28</v>
       </c>
-      <c r="D61" s="28"/>
+      <c r="D61" s="28">
+        <v>0.11</v>
+      </c>
       <c r="E61" s="27">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F61" s="28"/>
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
+      <c r="I61" s="28">
+        <v>0.05</v>
+      </c>
       <c r="J61" s="27"/>
-      <c r="K61" s="27">
-        <v>20</v>
-      </c>
+      <c r="K61" s="27"/>
       <c r="L61" s="27">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="B62" s="27">
         <v>17</v>
@@ -4860,7 +4864,7 @@
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="27">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="28"/>
@@ -4868,7 +4872,7 @@
       <c r="I62" s="28"/>
       <c r="J62" s="27"/>
       <c r="K62" s="27">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L62" s="27">
         <v>30</v>
@@ -4876,7 +4880,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B63" s="27">
         <v>17</v>
@@ -4886,7 +4890,7 @@
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="27">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="28"/>
@@ -4894,7 +4898,7 @@
       <c r="I63" s="28"/>
       <c r="J63" s="27"/>
       <c r="K63" s="27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L63" s="27">
         <v>30</v>
@@ -4902,39 +4906,55 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B64" s="27">
+        <v>17</v>
+      </c>
+      <c r="C64" s="27">
+        <v>28</v>
+      </c>
+      <c r="D64" s="28"/>
+      <c r="E64" s="27">
+        <v>65</v>
+      </c>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27">
+        <v>30</v>
+      </c>
+      <c r="L64" s="27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B64" s="30">
+      <c r="B65" s="30">
         <v>16</v>
       </c>
-      <c r="C64" s="30">
+      <c r="C65" s="30">
         <v>14</v>
       </c>
-      <c r="D64" s="31"/>
-      <c r="E64" s="30">
+      <c r="D65" s="31"/>
+      <c r="E65" s="30">
         <v>47</v>
       </c>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31">
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31">
         <v>0.02</v>
       </c>
-      <c r="I64" s="31"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="24" t="s">
-        <v>108</v>
-      </c>
       <c r="D66" s="29"/>
       <c r="F66" s="29"/>
       <c r="G66" s="29"/>
@@ -4942,34 +4962,18 @@
       <c r="I66" s="29"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B67" s="27">
-        <v>33</v>
-      </c>
-      <c r="C67" s="27">
-        <v>29</v>
-      </c>
-      <c r="D67" s="28">
-        <v>0.05</v>
-      </c>
-      <c r="E67" s="27">
-        <v>35</v>
-      </c>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27">
-        <v>15</v>
-      </c>
+      <c r="A67" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" s="27">
         <v>33</v>
@@ -4977,16 +4981,16 @@
       <c r="C68" s="27">
         <v>29</v>
       </c>
-      <c r="D68" s="28"/>
+      <c r="D68" s="28">
+        <v>0.05</v>
+      </c>
       <c r="E68" s="27">
         <v>35</v>
       </c>
       <c r="F68" s="28"/>
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
-      <c r="I68" s="28">
-        <v>0.04</v>
-      </c>
+      <c r="I68" s="28"/>
       <c r="J68" s="27"/>
       <c r="K68" s="27"/>
       <c r="L68" s="27">
@@ -4995,7 +4999,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B69" s="27">
         <v>33</v>
@@ -5003,16 +5007,16 @@
       <c r="C69" s="27">
         <v>29</v>
       </c>
-      <c r="D69" s="28">
-        <v>0.1</v>
-      </c>
+      <c r="D69" s="28"/>
       <c r="E69" s="27">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F69" s="28"/>
       <c r="G69" s="28"/>
       <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
+      <c r="I69" s="28">
+        <v>0.04</v>
+      </c>
       <c r="J69" s="27"/>
       <c r="K69" s="27"/>
       <c r="L69" s="27">
@@ -5021,7 +5025,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B70" s="27">
         <v>33</v>
@@ -5029,14 +5033,14 @@
       <c r="C70" s="27">
         <v>29</v>
       </c>
-      <c r="D70" s="28"/>
+      <c r="D70" s="28">
+        <v>0.1</v>
+      </c>
       <c r="E70" s="27">
         <v>20</v>
       </c>
       <c r="F70" s="28"/>
-      <c r="G70" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="G70" s="28"/>
       <c r="H70" s="28"/>
       <c r="I70" s="28"/>
       <c r="J70" s="27"/>
@@ -5047,7 +5051,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71" s="27">
         <v>33</v>
@@ -5055,14 +5059,14 @@
       <c r="C71" s="27">
         <v>29</v>
       </c>
-      <c r="D71" s="28">
-        <v>0.1</v>
-      </c>
+      <c r="D71" s="28"/>
       <c r="E71" s="27">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
+      <c r="G71" s="28">
+        <v>0.03</v>
+      </c>
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
       <c r="J71" s="27"/>
@@ -5073,7 +5077,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B72" s="27">
         <v>33</v>
@@ -5081,14 +5085,14 @@
       <c r="C72" s="27">
         <v>29</v>
       </c>
-      <c r="D72" s="28"/>
+      <c r="D72" s="28">
+        <v>0.1</v>
+      </c>
       <c r="E72" s="27">
         <v>40</v>
       </c>
       <c r="F72" s="28"/>
-      <c r="G72" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="G72" s="28"/>
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
       <c r="J72" s="27"/>
@@ -5098,86 +5102,84 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B73" s="32">
-        <v>19</v>
-      </c>
-      <c r="C73" s="32">
-        <v>35</v>
-      </c>
-      <c r="D73" s="35">
-        <v>0</v>
-      </c>
-      <c r="E73" s="32">
+      <c r="A73" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="27">
+        <v>33</v>
+      </c>
+      <c r="C73" s="27">
+        <v>29</v>
+      </c>
+      <c r="D73" s="28"/>
+      <c r="E73" s="27">
         <v>40</v>
       </c>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
       <c r="J73" s="27"/>
       <c r="K73" s="27"/>
-      <c r="L73" s="32">
+      <c r="L73" s="27">
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B74" s="27">
-        <v>42</v>
-      </c>
-      <c r="C74" s="27">
-        <v>42</v>
-      </c>
-      <c r="D74" s="28">
-        <v>0.1</v>
-      </c>
-      <c r="E74" s="27"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
+      <c r="A74" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="32">
+        <v>19</v>
+      </c>
+      <c r="C74" s="32">
+        <v>35</v>
+      </c>
+      <c r="D74" s="35">
+        <v>0</v>
+      </c>
+      <c r="E74" s="32">
+        <v>40</v>
+      </c>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
       <c r="J74" s="27"/>
       <c r="K74" s="27"/>
-      <c r="L74" s="27">
-        <v>64</v>
+      <c r="L74" s="32">
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="B75" s="27">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C75" s="27">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D75" s="28">
-        <v>0</v>
-      </c>
-      <c r="E75" s="27">
-        <v>30</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="E75" s="27"/>
       <c r="F75" s="28"/>
       <c r="G75" s="28"/>
       <c r="H75" s="28"/>
-      <c r="I75" s="28">
-        <v>0.02</v>
-      </c>
+      <c r="I75" s="28"/>
       <c r="J75" s="27"/>
       <c r="K75" s="27"/>
       <c r="L75" s="27">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B76" s="27">
         <v>43</v>
@@ -5186,7 +5188,7 @@
         <v>44</v>
       </c>
       <c r="D76" s="28">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="E76" s="27">
         <v>30</v>
@@ -5195,17 +5197,17 @@
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
       <c r="I76" s="28">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="J76" s="27"/>
       <c r="K76" s="27"/>
       <c r="L76" s="27">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="B77" s="27">
         <v>43</v>
@@ -5214,7 +5216,7 @@
         <v>44</v>
       </c>
       <c r="D77" s="28">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E77" s="27">
         <v>30</v>
@@ -5223,17 +5225,17 @@
       <c r="G77" s="28"/>
       <c r="H77" s="28"/>
       <c r="I77" s="28">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="J77" s="27"/>
       <c r="K77" s="27"/>
       <c r="L77" s="27">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B78" s="27">
         <v>43</v>
@@ -5242,7 +5244,7 @@
         <v>44</v>
       </c>
       <c r="D78" s="28">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E78" s="27">
         <v>30</v>
@@ -5251,17 +5253,17 @@
       <c r="G78" s="28"/>
       <c r="H78" s="28"/>
       <c r="I78" s="28">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J78" s="27"/>
       <c r="K78" s="27"/>
       <c r="L78" s="27">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="B79" s="27">
         <v>43</v>
@@ -5269,25 +5271,27 @@
       <c r="C79" s="27">
         <v>44</v>
       </c>
-      <c r="D79" s="28"/>
+      <c r="D79" s="28">
+        <v>0.12</v>
+      </c>
       <c r="E79" s="27">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F79" s="28"/>
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
+      <c r="I79" s="28">
+        <v>0.06</v>
+      </c>
       <c r="J79" s="27"/>
-      <c r="K79" s="27">
-        <v>25</v>
-      </c>
+      <c r="K79" s="27"/>
       <c r="L79" s="27">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B80" s="27">
         <v>43</v>
@@ -5297,7 +5301,7 @@
       </c>
       <c r="D80" s="28"/>
       <c r="E80" s="27">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F80" s="28"/>
       <c r="G80" s="28"/>
@@ -5305,7 +5309,7 @@
       <c r="I80" s="28"/>
       <c r="J80" s="27"/>
       <c r="K80" s="27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L80" s="27">
         <v>30</v>
@@ -5313,7 +5317,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B81" s="27">
         <v>43</v>
@@ -5323,7 +5327,7 @@
       </c>
       <c r="D81" s="28"/>
       <c r="E81" s="27">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F81" s="28"/>
       <c r="G81" s="28"/>
@@ -5331,7 +5335,7 @@
       <c r="I81" s="28"/>
       <c r="J81" s="27"/>
       <c r="K81" s="27">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L81" s="27">
         <v>30</v>
@@ -5339,41 +5343,57 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B82" s="27">
+        <v>43</v>
+      </c>
+      <c r="C82" s="27">
+        <v>44</v>
+      </c>
+      <c r="D82" s="28"/>
+      <c r="E82" s="27">
+        <v>65</v>
+      </c>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27">
+        <v>35</v>
+      </c>
+      <c r="L82" s="27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B82" s="30">
+      <c r="B83" s="30">
         <v>33</v>
       </c>
-      <c r="C82" s="30">
+      <c r="C83" s="30">
         <v>29</v>
       </c>
-      <c r="D82" s="31">
+      <c r="D83" s="31">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E82" s="30">
+      <c r="E83" s="30">
         <v>20</v>
       </c>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30">
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-    </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="24" t="s">
-        <v>116</v>
-      </c>
       <c r="D84" s="29"/>
       <c r="F84" s="29"/>
       <c r="G84" s="29"/>
@@ -5381,36 +5401,18 @@
       <c r="I84" s="29"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B85" s="27">
-        <v>16</v>
-      </c>
-      <c r="C85" s="27">
-        <v>0</v>
-      </c>
-      <c r="D85" s="28">
-        <v>0.05</v>
-      </c>
-      <c r="E85" s="27">
-        <v>45</v>
-      </c>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28">
-        <v>0.02</v>
-      </c>
-      <c r="I85" s="28"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="27">
-        <v>10</v>
-      </c>
+      <c r="A85" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="B86" s="27">
         <v>16</v>
@@ -5418,7 +5420,9 @@
       <c r="C86" s="27">
         <v>0</v>
       </c>
-      <c r="D86" s="28"/>
+      <c r="D86" s="28">
+        <v>0.05</v>
+      </c>
       <c r="E86" s="27">
         <v>45</v>
       </c>
@@ -5427,9 +5431,7 @@
       <c r="H86" s="28">
         <v>0.02</v>
       </c>
-      <c r="I86" s="28">
-        <v>0.04</v>
-      </c>
+      <c r="I86" s="28"/>
       <c r="J86" s="27"/>
       <c r="K86" s="27"/>
       <c r="L86" s="27">
@@ -5438,7 +5440,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B87" s="27">
         <v>16</v>
@@ -5446,18 +5448,18 @@
       <c r="C87" s="27">
         <v>0</v>
       </c>
-      <c r="D87" s="28">
-        <v>0.1</v>
-      </c>
+      <c r="D87" s="28"/>
       <c r="E87" s="27">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F87" s="28"/>
       <c r="G87" s="28"/>
       <c r="H87" s="28">
         <v>0.02</v>
       </c>
-      <c r="I87" s="28"/>
+      <c r="I87" s="28">
+        <v>0.04</v>
+      </c>
       <c r="J87" s="27"/>
       <c r="K87" s="27"/>
       <c r="L87" s="27">
@@ -5466,7 +5468,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B88" s="27">
         <v>16</v>
@@ -5474,14 +5476,14 @@
       <c r="C88" s="27">
         <v>0</v>
       </c>
-      <c r="D88" s="28"/>
+      <c r="D88" s="28">
+        <v>0.1</v>
+      </c>
       <c r="E88" s="27">
         <v>30</v>
       </c>
       <c r="F88" s="28"/>
-      <c r="G88" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="G88" s="28"/>
       <c r="H88" s="28">
         <v>0.02</v>
       </c>
@@ -5494,7 +5496,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B89" s="27">
         <v>16</v>
@@ -5502,14 +5504,14 @@
       <c r="C89" s="27">
         <v>0</v>
       </c>
-      <c r="D89" s="28">
-        <v>0.1</v>
-      </c>
+      <c r="D89" s="28"/>
       <c r="E89" s="27">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
+      <c r="G89" s="28">
+        <v>0.03</v>
+      </c>
       <c r="H89" s="28">
         <v>0.02</v>
       </c>
@@ -5522,7 +5524,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B90" s="27">
         <v>16</v>
@@ -5530,14 +5532,14 @@
       <c r="C90" s="27">
         <v>0</v>
       </c>
-      <c r="D90" s="28"/>
+      <c r="D90" s="28">
+        <v>0.1</v>
+      </c>
       <c r="E90" s="27">
         <v>50</v>
       </c>
       <c r="F90" s="28"/>
-      <c r="G90" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="G90" s="28"/>
       <c r="H90" s="28">
         <v>0.02</v>
       </c>
@@ -5549,42 +5551,44 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B91" s="32">
-        <v>27</v>
-      </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="32">
-        <v>35</v>
-      </c>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35">
+      <c r="A91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="27">
+        <v>16</v>
+      </c>
+      <c r="C91" s="27">
+        <v>0</v>
+      </c>
+      <c r="D91" s="28"/>
+      <c r="E91" s="27">
+        <v>50</v>
+      </c>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="H91" s="28">
         <v>0.02</v>
       </c>
-      <c r="I91" s="35"/>
+      <c r="I91" s="28"/>
       <c r="J91" s="27"/>
       <c r="K91" s="27"/>
-      <c r="L91" s="32">
+      <c r="L91" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B92" s="32">
-        <v>24</v>
-      </c>
-      <c r="C92" s="32">
-        <v>20</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C92" s="32"/>
       <c r="D92" s="35"/>
       <c r="E92" s="32">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
@@ -5600,36 +5604,40 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="26" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="B93" s="32">
-        <v>22</v>
-      </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="35">
-        <v>0.08</v>
-      </c>
-      <c r="E93" s="32"/>
+        <v>24</v>
+      </c>
+      <c r="C93" s="32">
+        <v>20</v>
+      </c>
+      <c r="D93" s="35"/>
+      <c r="E93" s="32">
+        <v>20</v>
+      </c>
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
+      <c r="H93" s="35">
+        <v>0.02</v>
+      </c>
       <c r="I93" s="35"/>
       <c r="J93" s="27"/>
       <c r="K93" s="27"/>
       <c r="L93" s="32">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B94" s="32">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C94" s="32"/>
       <c r="D94" s="35">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="E94" s="32"/>
       <c r="F94" s="35"/>
@@ -5643,36 +5651,30 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B95" s="27">
-        <v>23</v>
-      </c>
-      <c r="C95" s="27">
-        <v>25</v>
-      </c>
-      <c r="D95" s="28">
-        <v>0</v>
-      </c>
-      <c r="E95" s="27">
-        <v>30</v>
-      </c>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28">
-        <v>0.02</v>
-      </c>
+      <c r="A95" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B95" s="32">
+        <v>27</v>
+      </c>
+      <c r="C95" s="32"/>
+      <c r="D95" s="35">
+        <v>0.12</v>
+      </c>
+      <c r="E95" s="32"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
       <c r="J95" s="27"/>
       <c r="K95" s="27"/>
-      <c r="L95" s="27">
-        <v>30</v>
+      <c r="L95" s="32">
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B96" s="27">
         <v>23</v>
@@ -5681,7 +5683,7 @@
         <v>25</v>
       </c>
       <c r="D96" s="28">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E96" s="27">
         <v>30</v>
@@ -5695,12 +5697,12 @@
       <c r="J96" s="27"/>
       <c r="K96" s="27"/>
       <c r="L96" s="27">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B97" s="27">
         <v>23</v>
@@ -5709,7 +5711,7 @@
         <v>25</v>
       </c>
       <c r="D97" s="28">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E97" s="27">
         <v>30</v>
@@ -5718,17 +5720,17 @@
       <c r="G97" s="28"/>
       <c r="H97" s="28"/>
       <c r="I97" s="28">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="J97" s="27"/>
       <c r="K97" s="27"/>
       <c r="L97" s="27">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B98" s="27">
         <v>23</v>
@@ -5737,7 +5739,7 @@
         <v>25</v>
       </c>
       <c r="D98" s="28">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E98" s="27">
         <v>30</v>
@@ -5746,17 +5748,17 @@
       <c r="G98" s="28"/>
       <c r="H98" s="28"/>
       <c r="I98" s="28">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="J98" s="27"/>
       <c r="K98" s="27"/>
       <c r="L98" s="27">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B99" s="27">
         <v>23</v>
@@ -5764,25 +5766,27 @@
       <c r="C99" s="27">
         <v>25</v>
       </c>
-      <c r="D99" s="28"/>
+      <c r="D99" s="28">
+        <v>0.11</v>
+      </c>
       <c r="E99" s="27">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F99" s="28"/>
       <c r="G99" s="28"/>
       <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
+      <c r="I99" s="28">
+        <v>0.05</v>
+      </c>
       <c r="J99" s="27"/>
-      <c r="K99" s="27">
-        <v>20</v>
-      </c>
+      <c r="K99" s="27"/>
       <c r="L99" s="27">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="B100" s="27">
         <v>23</v>
@@ -5792,7 +5796,7 @@
       </c>
       <c r="D100" s="28"/>
       <c r="E100" s="27">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F100" s="28"/>
       <c r="G100" s="28"/>
@@ -5800,7 +5804,7 @@
       <c r="I100" s="28"/>
       <c r="J100" s="27"/>
       <c r="K100" s="27">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L100" s="27">
         <v>30</v>
@@ -5808,7 +5812,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B101" s="27">
         <v>23</v>
@@ -5818,7 +5822,7 @@
       </c>
       <c r="D101" s="28"/>
       <c r="E101" s="27">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F101" s="28"/>
       <c r="G101" s="28"/>
@@ -5826,7 +5830,7 @@
       <c r="I101" s="28"/>
       <c r="J101" s="27"/>
       <c r="K101" s="27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L101" s="27">
         <v>30</v>
@@ -5834,41 +5838,57 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B102" s="27">
+        <v>23</v>
+      </c>
+      <c r="C102" s="27">
+        <v>25</v>
+      </c>
+      <c r="D102" s="28"/>
+      <c r="E102" s="27">
+        <v>65</v>
+      </c>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27">
+        <v>30</v>
+      </c>
+      <c r="L102" s="27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B102" s="30">
+      <c r="B103" s="30">
         <v>16</v>
       </c>
-      <c r="C102" s="30">
+      <c r="C103" s="30">
         <v>0</v>
       </c>
-      <c r="D102" s="31"/>
-      <c r="E102" s="30">
+      <c r="D103" s="31"/>
+      <c r="E103" s="30">
         <v>44</v>
       </c>
-      <c r="F102" s="31"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="31">
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31">
         <v>0.02</v>
       </c>
-      <c r="I102" s="31"/>
-      <c r="J102" s="30"/>
-      <c r="K102" s="30"/>
-      <c r="L102" s="30">
+      <c r="I103" s="31"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="30"/>
+      <c r="L103" s="30">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-    </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A104" s="24" t="s">
-        <v>123</v>
-      </c>
       <c r="D104" s="29"/>
       <c r="F104" s="29"/>
       <c r="G104" s="29"/>
@@ -5876,31 +5896,23 @@
       <c r="I104" s="29"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="28">
-        <v>0.05</v>
-      </c>
-      <c r="E105" s="27"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="27"/>
-      <c r="L105" s="27"/>
+      <c r="A105" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="B106" s="27"/>
       <c r="C106" s="27"/>
       <c r="D106" s="28">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E106" s="27"/>
       <c r="F106" s="28"/>
@@ -5913,16 +5925,14 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B107" s="27"/>
-      <c r="C107" s="27">
-        <v>9</v>
-      </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="27">
-        <v>3</v>
-      </c>
+      <c r="C107" s="27"/>
+      <c r="D107" s="28">
+        <v>0.04</v>
+      </c>
+      <c r="E107" s="27"/>
       <c r="F107" s="28"/>
       <c r="G107" s="28"/>
       <c r="H107" s="28"/>
@@ -5933,186 +5943,184 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B108" s="27">
-        <v>15</v>
-      </c>
-      <c r="C108" s="27"/>
+        <v>125</v>
+      </c>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27">
+        <v>9</v>
+      </c>
       <c r="D108" s="28"/>
-      <c r="E108" s="27"/>
+      <c r="E108" s="27">
+        <v>3</v>
+      </c>
       <c r="F108" s="28"/>
       <c r="G108" s="28"/>
       <c r="H108" s="28"/>
       <c r="I108" s="28"/>
       <c r="J108" s="27"/>
       <c r="K108" s="27"/>
-      <c r="L108" s="27">
-        <v>50</v>
-      </c>
+      <c r="L108" s="27"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="B109" s="27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C109" s="27"/>
       <c r="D109" s="28"/>
       <c r="E109" s="27"/>
       <c r="F109" s="28"/>
       <c r="G109" s="28"/>
-      <c r="H109" s="28">
-        <v>0.05</v>
-      </c>
+      <c r="H109" s="28"/>
       <c r="I109" s="28"/>
       <c r="J109" s="27"/>
       <c r="K109" s="27"/>
       <c r="L109" s="27">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B110" s="27"/>
+        <v>63</v>
+      </c>
+      <c r="B110" s="27">
+        <v>10</v>
+      </c>
       <c r="C110" s="27"/>
       <c r="D110" s="28"/>
       <c r="E110" s="27"/>
       <c r="F110" s="28"/>
       <c r="G110" s="28"/>
       <c r="H110" s="28">
-        <v>0.03</v>
-      </c>
-      <c r="I110" s="28">
-        <v>0.03</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="I110" s="28"/>
       <c r="J110" s="27"/>
       <c r="K110" s="27"/>
-      <c r="L110" s="27"/>
+      <c r="L110" s="27">
+        <v>16</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B111" s="27"/>
       <c r="C111" s="27"/>
       <c r="D111" s="28"/>
-      <c r="E111" s="27">
-        <v>10</v>
-      </c>
+      <c r="E111" s="27"/>
       <c r="F111" s="28"/>
       <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
+      <c r="H111" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="I111" s="28">
+        <v>0.03</v>
+      </c>
       <c r="J111" s="27"/>
       <c r="K111" s="27"/>
       <c r="L111" s="27"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="29"/>
-      <c r="H112" s="29"/>
-      <c r="I112" s="29"/>
+      <c r="A112" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B112" s="27"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="E112" s="27"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="27"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" s="24" t="s">
+      <c r="A113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="27">
+        <v>10</v>
+      </c>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="27"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="27"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D113" s="29"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="29"/>
-      <c r="H113" s="29"/>
-      <c r="I113" s="29"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B114" s="27"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28">
-        <v>0.05</v>
-      </c>
-      <c r="J114" s="27"/>
-      <c r="K114" s="27"/>
-      <c r="L114" s="27"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="28">
-        <v>0.02</v>
-      </c>
-      <c r="E115" s="27"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
-      <c r="L115" s="27"/>
+      <c r="D115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="B116" s="27"/>
       <c r="C116" s="27"/>
       <c r="D116" s="28"/>
-      <c r="E116" s="27">
-        <v>10</v>
-      </c>
+      <c r="E116" s="27"/>
       <c r="F116" s="28"/>
       <c r="G116" s="28"/>
       <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
+      <c r="I116" s="28">
+        <v>0.05</v>
+      </c>
       <c r="J116" s="27"/>
       <c r="K116" s="27"/>
       <c r="L116" s="27"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B117" s="27">
-        <v>8</v>
-      </c>
-      <c r="C117" s="27">
-        <v>8</v>
-      </c>
-      <c r="D117" s="28"/>
+        <v>130</v>
+      </c>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="28">
+        <v>0.02</v>
+      </c>
       <c r="E117" s="27"/>
       <c r="F117" s="28"/>
       <c r="G117" s="28"/>
       <c r="H117" s="28"/>
-      <c r="I117" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="I117" s="28"/>
       <c r="J117" s="27"/>
       <c r="K117" s="27"/>
       <c r="L117" s="27"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" s="26" t="s">
-        <v>66</v>
+      <c r="A118" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B118" s="27"/>
       <c r="C118" s="27"/>
       <c r="D118" s="28"/>
-      <c r="E118" s="32">
-        <v>4</v>
+      <c r="E118" s="27">
+        <v>10</v>
       </c>
       <c r="F118" s="28"/>
       <c r="G118" s="28"/>
@@ -6124,13 +6132,13 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B119" s="27">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C119" s="27">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D119" s="28"/>
       <c r="E119" s="27"/>
@@ -6145,192 +6153,192 @@
       <c r="L119" s="27"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D120" s="29"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="29"/>
-      <c r="H120" s="29"/>
-      <c r="I120" s="29"/>
+      <c r="A120" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="32">
+        <v>4</v>
+      </c>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="27"/>
+      <c r="K120" s="27"/>
+      <c r="L120" s="27"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A121" s="24" t="s">
+      <c r="A121" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="27">
+        <v>16</v>
+      </c>
+      <c r="C121" s="27">
+        <v>16</v>
+      </c>
+      <c r="D121" s="28"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="28"/>
+      <c r="I121" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="J121" s="27"/>
+      <c r="K121" s="27"/>
+      <c r="L121" s="27"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="D121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="29"/>
-      <c r="I121" s="29"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="D123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B122" s="27">
+      <c r="B124" s="27">
         <v>5</v>
       </c>
-      <c r="C122" s="27"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="28">
+      <c r="C124" s="27"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="28"/>
+      <c r="I124" s="28">
         <v>0.02</v>
       </c>
-      <c r="J122" s="27"/>
-      <c r="K122" s="27"/>
-      <c r="L122" s="27">
+      <c r="J124" s="27"/>
+      <c r="K124" s="27"/>
+      <c r="L124" s="27">
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B123" s="27">
+      <c r="B125" s="27">
         <v>11</v>
       </c>
-      <c r="C123" s="27"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="27">
+      <c r="C125" s="27"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="27">
         <v>7</v>
       </c>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="28"/>
-      <c r="J123" s="27"/>
-      <c r="K123" s="27"/>
-      <c r="L123" s="27">
+      <c r="F125" s="28"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="28"/>
+      <c r="I125" s="28"/>
+      <c r="J125" s="27"/>
+      <c r="K125" s="27"/>
+      <c r="L125" s="27">
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D124" s="29"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="29"/>
-      <c r="H124" s="29"/>
-      <c r="I124" s="29"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A125" s="24" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+      <c r="I126" s="29"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="29"/>
-      <c r="I125" s="29"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+      <c r="D127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B126" s="27">
+      <c r="B128" s="27">
         <v>30</v>
       </c>
-      <c r="C126" s="27"/>
-      <c r="D126" s="28">
+      <c r="C128" s="27"/>
+      <c r="D128" s="28">
         <v>0.1</v>
       </c>
-      <c r="E126" s="27"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="28"/>
-      <c r="J126" s="27"/>
-      <c r="K126" s="27"/>
-      <c r="L126" s="27">
+      <c r="E128" s="27"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="28"/>
+      <c r="I128" s="28"/>
+      <c r="J128" s="27"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B127" s="27">
+      <c r="B129" s="27">
         <v>30</v>
       </c>
-      <c r="C127" s="27"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="28">
+      <c r="C129" s="27"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="28"/>
+      <c r="I129" s="28">
         <v>0.1</v>
       </c>
-      <c r="J127" s="27"/>
-      <c r="K127" s="27"/>
-      <c r="L127" s="27">
+      <c r="J129" s="27"/>
+      <c r="K129" s="27"/>
+      <c r="L129" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="29"/>
-      <c r="I128" s="29"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" s="24" t="s">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D129" s="29"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
-      <c r="H129" s="29"/>
-      <c r="I129" s="29"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B130" s="27"/>
-      <c r="C130" s="27"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="28"/>
-      <c r="J130" s="27"/>
-      <c r="K130" s="27"/>
-      <c r="L130" s="27"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B131" s="27">
-        <v>10</v>
-      </c>
-      <c r="C131" s="27"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="28"/>
-      <c r="I131" s="28"/>
-      <c r="J131" s="27"/>
-      <c r="K131" s="27"/>
-      <c r="L131" s="27">
-        <v>30</v>
-      </c>
+      <c r="D131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c r="B132" s="27"/>
-      <c r="C132" s="27">
-        <v>10</v>
-      </c>
+      <c r="C132" s="27"/>
       <c r="D132" s="28"/>
-      <c r="E132" s="27">
-        <v>10</v>
-      </c>
+      <c r="E132" s="27"/>
       <c r="F132" s="28"/>
       <c r="G132" s="28"/>
       <c r="H132" s="28"/>
@@ -6341,9 +6349,11 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B133" s="27"/>
+        <v>226</v>
+      </c>
+      <c r="B133" s="27">
+        <v>10</v>
+      </c>
       <c r="C133" s="27"/>
       <c r="D133" s="28"/>
       <c r="E133" s="27"/>
@@ -6353,72 +6363,96 @@
       <c r="I133" s="28"/>
       <c r="J133" s="27"/>
       <c r="K133" s="27"/>
-      <c r="L133" s="27"/>
+      <c r="L133" s="27">
+        <v>30</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D134" s="29"/>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="29"/>
-      <c r="I134" s="29"/>
+      <c r="A134" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27">
+        <v>10</v>
+      </c>
+      <c r="D134" s="28"/>
+      <c r="E134" s="27">
+        <v>10</v>
+      </c>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="27"/>
+      <c r="K134" s="27"/>
+      <c r="L134" s="27"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="24" t="s">
+      <c r="A135" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" s="27"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="28"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="28"/>
+      <c r="J135" s="27"/>
+      <c r="K135" s="27"/>
+      <c r="L135" s="27"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D135" s="29"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="29"/>
-      <c r="I135" s="29"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+      <c r="D137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="28">
+      <c r="B138" s="27"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="28">
         <v>0.15</v>
       </c>
-      <c r="G136" s="28"/>
-      <c r="H136" s="28"/>
-      <c r="I136" s="28"/>
-      <c r="J136" s="27"/>
-      <c r="K136" s="27"/>
-      <c r="L136" s="27"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
+      <c r="G138" s="28"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="28"/>
+      <c r="J138" s="27"/>
+      <c r="K138" s="27"/>
+      <c r="L138" s="27"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
-      <c r="H137" s="28"/>
-      <c r="I137" s="28"/>
-      <c r="J137" s="27"/>
-      <c r="K137" s="27"/>
-      <c r="L137" s="27"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D138" s="29"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="29"/>
-      <c r="I138" s="29"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D139" s="29"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="29"/>
-      <c r="I139" s="29"/>
+      <c r="B139" s="27"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="28"/>
+      <c r="H139" s="28"/>
+      <c r="I139" s="28"/>
+      <c r="J139" s="27"/>
+      <c r="K139" s="27"/>
+      <c r="L139" s="27"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D140" s="29"/>
@@ -12859,6 +12893,20 @@
       <c r="G1059" s="29"/>
       <c r="H1059" s="29"/>
       <c r="I1059" s="29"/>
+    </row>
+    <row r="1060" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D1060" s="29"/>
+      <c r="F1060" s="29"/>
+      <c r="G1060" s="29"/>
+      <c r="H1060" s="29"/>
+      <c r="I1060" s="29"/>
+    </row>
+    <row r="1061" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D1061" s="29"/>
+      <c r="F1061" s="29"/>
+      <c r="G1061" s="29"/>
+      <c r="H1061" s="29"/>
+      <c r="I1061" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
